--- a/data/CS1/Shared ESS/CS1_ESS.xlsx
+++ b/data/CS1/Shared ESS/CS1_ESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B40422-A2B4-43B0-8044-90DA57E49A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D5C49E-BE4F-4E6D-AF95-EFE1BC8E6BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investment Cost NREL" sheetId="4" r:id="rId1"/>
@@ -375,16 +375,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1BF002-C479-4585-BB53-0E4A987995C6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +401,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -418,7 +418,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -435,7 +435,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -461,17 +461,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -485,17 +485,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <f>(1/5)*'Investment Cost NREL'!B3*1000/10</f>
-        <v>6900</v>
+        <f>(1/5)*'Investment Cost NREL'!B3*1000</f>
+        <v>69000</v>
       </c>
       <c r="C2" s="1">
-        <f>(1/5)*'Investment Cost NREL'!C3*1000/10</f>
-        <v>3960</v>
+        <f>(1/5)*'Investment Cost NREL'!C3*1000</f>
+        <v>39600</v>
       </c>
       <c r="D2" s="1">
         <f>(1/5)*'Investment Cost NREL'!D3*1000</f>
@@ -506,17 +506,17 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <f>(4/5)*'Investment Cost NREL'!B3*1000/10</f>
-        <v>27600</v>
+        <f>(4/5)*'Investment Cost NREL'!B3*1000</f>
+        <v>276000</v>
       </c>
       <c r="C3" s="1">
-        <f>(4/5)*'Investment Cost NREL'!C3*1000/10</f>
-        <v>15840</v>
+        <f>(4/5)*'Investment Cost NREL'!C3*1000</f>
+        <v>158400</v>
       </c>
       <c r="D3" s="1">
         <f>(4/5)*'Investment Cost NREL'!D3*1000</f>
